--- a/fuentes/contenidos/grado07/guion04/SolicitudGrafica LE_07_04_REC310.xlsx
+++ b/fuentes/contenidos/grado07/guion04/SolicitudGrafica LE_07_04_REC310.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="198">
   <si>
     <t>Fecha:</t>
   </si>
@@ -593,12 +593,6 @@
     <t>LE_07_04_REC310</t>
   </si>
   <si>
-    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=001MC401&amp;ruta=Buscador</t>
-  </si>
-  <si>
-    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=001VXC01&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=000XSZ01&amp;ruta=Buscador</t>
   </si>
   <si>
@@ -617,13 +611,16 @@
     <t>Mafalda</t>
   </si>
   <si>
-    <t>Tin Tin</t>
-  </si>
-  <si>
     <t>Spiderman</t>
   </si>
   <si>
     <t>Maus</t>
+  </si>
+  <si>
+    <t>Corto Maltés</t>
+  </si>
+  <si>
+    <t>En el globo de la imagen poner en letra Comic el siguiente enunciado: "Yo no soy un héroe..."</t>
   </si>
 </sst>
 </file>
@@ -633,7 +630,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,8 +791,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +844,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -1289,7 +1297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1367,8 +1375,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1689,8 +1707,12 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="87">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1729,6 +1751,11 @@
     <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1767,6 +1794,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2453,9 +2485,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2477,7 +2509,7 @@
     <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2496,7 +2528,7 @@
         <v>Ubicación de la imagen en el recurso F6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -2527,7 +2559,7 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2556,13 +2588,13 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2588,13 +2620,13 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -2621,7 +2653,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2674,7 +2706,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="17" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2741,20 +2773,20 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="65">
+    <row r="10" spans="1:16" s="11" customFormat="1">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>188</v>
+      <c r="B10" s="109">
+        <v>318252725</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>150</v>
@@ -2775,8 +2807,8 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63" t="s">
-        <v>195</v>
+      <c r="J10" s="109" t="s">
+        <v>193</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2789,15 +2821,15 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>189</v>
+      <c r="B11" s="109">
+        <v>115769413</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>150</v>
@@ -2818,10 +2850,12 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="65"/>
+      <c r="K11" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
@@ -2833,14 +2867,14 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>150</v>
@@ -2862,7 +2896,7 @@
         <v/>
       </c>
       <c r="J12" s="64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -2876,14 +2910,14 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>150</v>
@@ -2905,7 +2939,7 @@
         <v/>
       </c>
       <c r="J13" s="64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -2913,20 +2947,20 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="65">
+    <row r="14" spans="1:16" s="11" customFormat="1">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>188</v>
+      <c r="B14" s="109">
+        <v>318252725</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
@@ -2947,8 +2981,8 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J14" s="63" t="s">
-        <v>195</v>
+      <c r="J14" s="109" t="s">
+        <v>193</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -2956,20 +2990,20 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="65">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="39">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>189</v>
+      <c r="B15" s="109">
+        <v>115769413</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>155</v>
@@ -2990,10 +3024,12 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="K15" s="66"/>
+      <c r="K15" s="109" t="s">
+        <v>197</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
@@ -3005,14 +3041,14 @@
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>155</v>
@@ -3034,7 +3070,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -3048,14 +3084,14 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>155</v>
@@ -3077,7 +3113,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -3085,7 +3121,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="18" spans="1:15" s="11" customFormat="1">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3120,7 +3156,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="19" spans="1:15" s="11" customFormat="1">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3155,7 +3191,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="11" customFormat="1">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3190,7 +3226,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="21" spans="1:15" s="11" customFormat="1">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3225,7 +3261,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="22" spans="1:15" s="11" customFormat="1">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3260,7 +3296,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="23" spans="1:15" s="11" customFormat="1">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3295,7 +3331,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="24" spans="1:15" s="11" customFormat="1">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3330,7 +3366,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="25" spans="1:15" s="11" customFormat="1">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3361,7 +3397,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="26" spans="1:15" s="11" customFormat="1">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3392,7 +3428,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="27" spans="1:15" s="11" customFormat="1">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3424,7 +3460,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="28" spans="1:15" s="11" customFormat="1">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3455,7 +3491,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="29" spans="1:15" s="11" customFormat="1">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3486,7 +3522,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="30" spans="1:15" s="11" customFormat="1">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3517,7 +3553,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="31" spans="1:15" s="11" customFormat="1">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3548,7 +3584,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="32" spans="1:15" s="11" customFormat="1">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3579,7 +3615,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="33" spans="1:15" s="11" customFormat="1">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3610,7 +3646,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="34" spans="1:15" s="11" customFormat="1">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3642,7 +3678,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="35" spans="1:15" s="11" customFormat="1">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3674,7 +3710,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="36" spans="1:15" s="11" customFormat="1">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3706,7 +3742,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="37" spans="1:15" s="11" customFormat="1">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3737,7 +3773,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="38" spans="1:15" s="11" customFormat="1">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3768,7 +3804,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="39" spans="1:15" s="11" customFormat="1">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3799,7 +3835,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="40" spans="1:15" s="11" customFormat="1">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3830,7 +3866,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="41" spans="1:15" s="11" customFormat="1">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3861,7 +3897,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="42" spans="1:15" s="11" customFormat="1">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3892,7 +3928,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="43" spans="1:15" s="11" customFormat="1">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3923,7 +3959,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="44" spans="1:15" s="11" customFormat="1">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3954,7 +3990,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="45" spans="1:15" s="11" customFormat="1">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3985,7 +4021,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="46" spans="1:15" s="11" customFormat="1">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4016,7 +4052,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="47" spans="1:15" s="11" customFormat="1">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4047,7 +4083,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="48" spans="1:15" s="11" customFormat="1">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4078,7 +4114,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4109,7 +4145,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="50" spans="1:11" s="11" customFormat="1">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4140,7 +4176,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="51" spans="1:11" s="11" customFormat="1">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4171,7 +4207,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="52" spans="1:11" s="11" customFormat="1">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4202,7 +4238,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="53" spans="1:11" s="11" customFormat="1">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4233,7 +4269,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="54" spans="1:11" s="11" customFormat="1">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4264,7 +4300,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="55" spans="1:11" s="11" customFormat="1">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4295,7 +4331,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="56" spans="1:11" s="11" customFormat="1">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4326,7 +4362,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="57" spans="1:11" s="11" customFormat="1">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4357,7 +4393,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="58" spans="1:11" s="11" customFormat="1">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4388,7 +4424,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="59" spans="1:11" s="11" customFormat="1">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4419,7 +4455,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="60" spans="1:11" s="11" customFormat="1">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4450,7 +4486,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="61" spans="1:11" s="11" customFormat="1">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4481,7 +4517,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="62" spans="1:11" s="11" customFormat="1">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4512,7 +4548,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="63" spans="1:11" s="11" customFormat="1">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4543,7 +4579,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="64" spans="1:11" s="11" customFormat="1">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4574,7 +4610,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="65" spans="1:11" s="11" customFormat="1">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4605,7 +4641,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="66" spans="1:11" s="11" customFormat="1">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4636,7 +4672,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="67" spans="1:11" s="11" customFormat="1">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4667,7 +4703,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="68" spans="1:11" s="11" customFormat="1">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4698,7 +4734,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="11" customFormat="1">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4729,7 +4765,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="11" customFormat="1">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4760,7 +4796,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="11" customFormat="1">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4791,7 +4827,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="11" customFormat="1">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4822,7 +4858,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="11" customFormat="1">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4853,7 +4889,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="11" customFormat="1">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4884,7 +4920,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="11" customFormat="1">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4915,7 +4951,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="11" customFormat="1">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4946,7 +4982,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="11" customFormat="1">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4977,7 +5013,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="11" customFormat="1">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5008,7 +5044,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="11" customFormat="1">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5039,7 +5075,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="11" customFormat="1">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5070,7 +5106,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="11" customFormat="1">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5101,7 +5137,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="11" customFormat="1">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5132,7 +5168,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="11" customFormat="1">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5163,7 +5199,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="11" customFormat="1">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5194,7 +5230,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="11" customFormat="1">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5225,7 +5261,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="11" customFormat="1">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5256,7 +5292,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="11" customFormat="1">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5287,7 +5323,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="11" customFormat="1">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5318,7 +5354,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="11" customFormat="1">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5349,7 +5385,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="11" customFormat="1">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5380,7 +5416,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="11" customFormat="1">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5411,7 +5447,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="11" customFormat="1">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5442,7 +5478,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="11" customFormat="1">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5473,7 +5509,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="11" customFormat="1">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5504,7 +5540,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="11" customFormat="1">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5535,7 +5571,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="11" customFormat="1">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5566,7 +5602,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="11" customFormat="1">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5597,7 +5633,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="11" customFormat="1">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5628,7 +5664,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="11" customFormat="1">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5659,7 +5695,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="11" customFormat="1">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5690,7 +5726,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="11" customFormat="1">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5721,7 +5757,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="11" customFormat="1">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5752,7 +5788,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="11" customFormat="1">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5783,7 +5819,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="11" customFormat="1">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5814,7 +5850,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="11" customFormat="1">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5845,7 +5881,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="11" customFormat="1">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5876,7 +5912,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="11" customFormat="1">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5907,7 +5943,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="11" customFormat="1">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6008,7 +6044,7 @@
     <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -6030,7 +6066,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="64">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -6054,7 +6090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6082,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="81" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6109,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6131,7 +6167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6158,7 +6194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6177,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6196,7 +6232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="33" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6226,7 +6262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6256,7 +6292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6336,7 +6372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="81" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6376,7 +6412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="65" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -7754,7 +7790,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="32">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -7782,7 +7818,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="48">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>

--- a/fuentes/contenidos/grado07/guion04/SolicitudGrafica LE_07_04_REC310.xlsx
+++ b/fuentes/contenidos/grado07/guion04/SolicitudGrafica LE_07_04_REC310.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="199">
   <si>
     <t>Fecha:</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>En el globo de la imagen poner en letra Comic el siguiente enunciado: "Yo no soy un héroe..."</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
   </si>
 </sst>
 </file>
@@ -1609,6 +1612,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,10 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -2485,9 +2488,9 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2533,14 +2536,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2564,12 +2567,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="88">
         <v>7</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2593,10 +2596,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2625,10 +2628,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2712,12 +2715,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2778,7 +2781,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="78">
         <v>318252725</v>
       </c>
       <c r="C10" s="20" t="str">
@@ -2807,7 +2810,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="78" t="s">
         <v>193</v>
       </c>
       <c r="K10" s="64"/>
@@ -2821,7 +2824,7 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="78">
         <v>115769413</v>
       </c>
       <c r="C11" s="20" t="str">
@@ -2829,7 +2832,7 @@
         <v>Recurso F6</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>150</v>
@@ -2850,10 +2853,10 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="109" t="s">
+      <c r="J11" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="109" t="s">
+      <c r="K11" s="78" t="s">
         <v>197</v>
       </c>
       <c r="O11" s="2" t="str">
@@ -2952,7 +2955,7 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="109">
+      <c r="B14" s="78">
         <v>318252725</v>
       </c>
       <c r="C14" s="20" t="str">
@@ -2981,7 +2984,7 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J14" s="109" t="s">
+      <c r="J14" s="78" t="s">
         <v>193</v>
       </c>
       <c r="K14" s="64"/>
@@ -2995,7 +2998,7 @@
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="109">
+      <c r="B15" s="78">
         <v>115769413</v>
       </c>
       <c r="C15" s="20" t="str">
@@ -3003,7 +3006,7 @@
         <v>Recurso F6</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>155</v>
@@ -3024,10 +3027,10 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="78" t="s">
         <v>197</v>
       </c>
       <c r="O15" s="2" t="str">
@@ -6015,7 +6018,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6045,25 +6047,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6071,11 +6073,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6126,11 +6128,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6175,12 +6177,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6274,14 +6276,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6314,12 +6316,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6359,12 +6361,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6380,12 +6382,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6788,40 +6790,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
